--- a/public/export/YAgdZoiDPh.xlsx
+++ b/public/export/YAgdZoiDPh.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NaitSiuol\laravel_directories\bhnhs-hr-react\public\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A4C54B-5E4B-47C8-B596-C98378F1476E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4DF0E7D-96DF-4EA4-B170-112CA8FC1EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="29400" yWindow="-120" windowWidth="23520" windowHeight="13740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29400" yWindow="-120" windowWidth="23520" windowHeight="13740" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C1" sheetId="1" r:id="rId1"/>
@@ -3844,6 +3844,12 @@
     <xf numFmtId="49" fontId="22" fillId="6" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="36" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="24" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3882,6 +3888,14 @@
     </xf>
     <xf numFmtId="49" fontId="26" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="24" fillId="3" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3969,13 +3983,14 @@
     <xf numFmtId="49" fontId="22" fillId="6" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="49" fontId="42" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="42" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4146,12 +4161,6 @@
     <xf numFmtId="49" fontId="37" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="36" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -4167,15 +4176,6 @@
     <xf numFmtId="49" fontId="33" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="33" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4984,10 +4984,61 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -5001,6 +5052,27 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -5010,8 +5082,101 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5036,60 +5201,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5215,117 +5326,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -10504,8 +10504,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:R265"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A20" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60:N60"/>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29:F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -10919,9 +10919,9 @@
       <c r="F19" s="231"/>
       <c r="G19" s="232"/>
       <c r="H19" s="233"/>
-      <c r="I19" s="449"/>
-      <c r="J19" s="450"/>
-      <c r="K19" s="450"/>
+      <c r="I19" s="360"/>
+      <c r="J19" s="361"/>
+      <c r="K19" s="361"/>
       <c r="L19" s="276"/>
       <c r="M19" s="504"/>
       <c r="N19" s="505"/>
@@ -10938,9 +10938,9 @@
       <c r="F20" s="461"/>
       <c r="G20" s="221"/>
       <c r="H20" s="209"/>
-      <c r="I20" s="451"/>
-      <c r="J20" s="452"/>
-      <c r="K20" s="452"/>
+      <c r="I20" s="362"/>
+      <c r="J20" s="363"/>
+      <c r="K20" s="363"/>
       <c r="L20" s="277"/>
       <c r="M20" s="506"/>
       <c r="N20" s="507"/>
@@ -10998,9 +10998,9 @@
       <c r="A23" s="475"/>
       <c r="B23" s="502"/>
       <c r="C23" s="503"/>
-      <c r="D23" s="401"/>
-      <c r="E23" s="401"/>
-      <c r="F23" s="401"/>
+      <c r="D23" s="377"/>
+      <c r="E23" s="377"/>
+      <c r="F23" s="377"/>
       <c r="G23" s="221"/>
       <c r="H23" s="209"/>
       <c r="I23" s="356" t="s">
@@ -11021,23 +11021,23 @@
       <c r="A24" s="207" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="360" t="s">
+      <c r="B24" s="364" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="361"/>
-      <c r="D24" s="362"/>
-      <c r="E24" s="363"/>
-      <c r="F24" s="364"/>
-      <c r="G24" s="365" t="s">
+      <c r="C24" s="365"/>
+      <c r="D24" s="366"/>
+      <c r="E24" s="367"/>
+      <c r="F24" s="368"/>
+      <c r="G24" s="369" t="s">
         <v>56</v>
       </c>
-      <c r="H24" s="366"/>
-      <c r="I24" s="367"/>
-      <c r="J24" s="368"/>
-      <c r="K24" s="368"/>
-      <c r="L24" s="368"/>
-      <c r="M24" s="368"/>
-      <c r="N24" s="369"/>
+      <c r="H24" s="370"/>
+      <c r="I24" s="371"/>
+      <c r="J24" s="372"/>
+      <c r="K24" s="372"/>
+      <c r="L24" s="372"/>
+      <c r="M24" s="372"/>
+      <c r="N24" s="373"/>
       <c r="Q24" s="292" t="s">
         <v>57</v>
       </c>
@@ -11050,16 +11050,16 @@
         <v>59</v>
       </c>
       <c r="C25" s="501"/>
-      <c r="D25" s="400"/>
-      <c r="E25" s="400"/>
-      <c r="F25" s="400"/>
+      <c r="D25" s="376"/>
+      <c r="E25" s="376"/>
+      <c r="F25" s="376"/>
       <c r="G25" s="244" t="s">
         <v>60</v>
       </c>
       <c r="H25" s="240"/>
-      <c r="I25" s="370"/>
-      <c r="J25" s="371"/>
-      <c r="K25" s="371"/>
+      <c r="I25" s="374"/>
+      <c r="J25" s="375"/>
+      <c r="K25" s="375"/>
       <c r="L25" s="345"/>
       <c r="M25" s="346"/>
       <c r="N25" s="346"/>
@@ -11071,9 +11071,9 @@
       <c r="A26" s="477"/>
       <c r="B26" s="502"/>
       <c r="C26" s="503"/>
-      <c r="D26" s="401"/>
-      <c r="E26" s="401"/>
-      <c r="F26" s="401"/>
+      <c r="D26" s="377"/>
+      <c r="E26" s="377"/>
+      <c r="F26" s="377"/>
       <c r="G26" s="221"/>
       <c r="H26" s="209"/>
       <c r="I26" s="347" t="s">
@@ -11098,9 +11098,9 @@
         <v>64</v>
       </c>
       <c r="C27" s="501"/>
-      <c r="D27" s="400"/>
-      <c r="E27" s="400"/>
-      <c r="F27" s="400"/>
+      <c r="D27" s="376"/>
+      <c r="E27" s="376"/>
+      <c r="F27" s="376"/>
       <c r="G27" s="232"/>
       <c r="H27" s="233"/>
       <c r="I27" s="345"/>
@@ -11117,21 +11117,21 @@
       <c r="A28" s="477"/>
       <c r="B28" s="502"/>
       <c r="C28" s="503"/>
-      <c r="D28" s="401"/>
-      <c r="E28" s="401"/>
-      <c r="F28" s="401"/>
+      <c r="D28" s="377"/>
+      <c r="E28" s="377"/>
+      <c r="F28" s="377"/>
       <c r="G28" s="232"/>
       <c r="H28" s="233"/>
-      <c r="I28" s="387" t="s">
+      <c r="I28" s="393" t="s">
         <v>45</v>
       </c>
-      <c r="J28" s="388"/>
-      <c r="K28" s="388"/>
-      <c r="L28" s="389" t="s">
+      <c r="J28" s="394"/>
+      <c r="K28" s="394"/>
+      <c r="L28" s="395" t="s">
         <v>46</v>
       </c>
-      <c r="M28" s="388"/>
-      <c r="N28" s="390"/>
+      <c r="M28" s="394"/>
+      <c r="N28" s="396"/>
       <c r="Q28" s="292" t="s">
         <v>66</v>
       </c>
@@ -11144,17 +11144,17 @@
         <v>68</v>
       </c>
       <c r="C29" s="501"/>
-      <c r="D29" s="400"/>
-      <c r="E29" s="400"/>
-      <c r="F29" s="400"/>
+      <c r="D29" s="376"/>
+      <c r="E29" s="376"/>
+      <c r="F29" s="376"/>
       <c r="G29" s="232"/>
       <c r="H29" s="245"/>
-      <c r="I29" s="391"/>
-      <c r="J29" s="392"/>
-      <c r="K29" s="392"/>
-      <c r="L29" s="393"/>
-      <c r="M29" s="393"/>
-      <c r="N29" s="394"/>
+      <c r="I29" s="397"/>
+      <c r="J29" s="398"/>
+      <c r="K29" s="398"/>
+      <c r="L29" s="399"/>
+      <c r="M29" s="399"/>
+      <c r="N29" s="400"/>
       <c r="Q29" s="292" t="s">
         <v>69</v>
       </c>
@@ -11163,21 +11163,21 @@
       <c r="A30" s="477"/>
       <c r="B30" s="502"/>
       <c r="C30" s="503"/>
-      <c r="D30" s="401"/>
-      <c r="E30" s="401"/>
-      <c r="F30" s="401"/>
+      <c r="D30" s="377"/>
+      <c r="E30" s="377"/>
+      <c r="F30" s="377"/>
       <c r="G30" s="232"/>
       <c r="H30" s="245"/>
-      <c r="I30" s="395" t="s">
+      <c r="I30" s="401" t="s">
         <v>51</v>
       </c>
-      <c r="J30" s="395"/>
-      <c r="K30" s="395"/>
-      <c r="L30" s="395" t="s">
+      <c r="J30" s="401"/>
+      <c r="K30" s="401"/>
+      <c r="L30" s="401" t="s">
         <v>52</v>
       </c>
-      <c r="M30" s="395"/>
-      <c r="N30" s="396"/>
+      <c r="M30" s="401"/>
+      <c r="N30" s="402"/>
       <c r="Q30" s="292" t="s">
         <v>70</v>
       </c>
@@ -11190,19 +11190,19 @@
         <v>72</v>
       </c>
       <c r="C31" s="225"/>
-      <c r="D31" s="362"/>
-      <c r="E31" s="363"/>
-      <c r="F31" s="364"/>
-      <c r="G31" s="365" t="s">
+      <c r="D31" s="366"/>
+      <c r="E31" s="367"/>
+      <c r="F31" s="368"/>
+      <c r="G31" s="369" t="s">
         <v>56</v>
       </c>
-      <c r="H31" s="366"/>
-      <c r="I31" s="397"/>
-      <c r="J31" s="398"/>
-      <c r="K31" s="398"/>
+      <c r="H31" s="370"/>
+      <c r="I31" s="403"/>
+      <c r="J31" s="404"/>
+      <c r="K31" s="404"/>
       <c r="L31" s="352"/>
       <c r="M31" s="352"/>
-      <c r="N31" s="399"/>
+      <c r="N31" s="405"/>
       <c r="Q31" s="292" t="s">
         <v>73</v>
       </c>
@@ -11215,42 +11215,42 @@
         <v>75</v>
       </c>
       <c r="C32" s="225"/>
-      <c r="D32" s="362"/>
-      <c r="E32" s="363"/>
-      <c r="F32" s="364"/>
+      <c r="D32" s="366"/>
+      <c r="E32" s="367"/>
+      <c r="F32" s="368"/>
       <c r="G32" s="246" t="s">
         <v>76</v>
       </c>
       <c r="H32" s="243"/>
-      <c r="I32" s="457"/>
-      <c r="J32" s="458"/>
-      <c r="K32" s="458"/>
-      <c r="L32" s="458"/>
-      <c r="M32" s="458"/>
-      <c r="N32" s="459"/>
+      <c r="I32" s="406"/>
+      <c r="J32" s="407"/>
+      <c r="K32" s="407"/>
+      <c r="L32" s="407"/>
+      <c r="M32" s="407"/>
+      <c r="N32" s="408"/>
       <c r="Q32" s="292" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="24.75" customHeight="1">
-      <c r="A33" s="372" t="s">
+      <c r="A33" s="378" t="s">
         <v>78</v>
       </c>
-      <c r="B33" s="361"/>
-      <c r="C33" s="373"/>
-      <c r="D33" s="362"/>
-      <c r="E33" s="363"/>
-      <c r="F33" s="364"/>
+      <c r="B33" s="365"/>
+      <c r="C33" s="379"/>
+      <c r="D33" s="366"/>
+      <c r="E33" s="367"/>
+      <c r="F33" s="368"/>
       <c r="G33" s="247" t="s">
         <v>79</v>
       </c>
       <c r="H33" s="248"/>
-      <c r="I33" s="367"/>
-      <c r="J33" s="368"/>
-      <c r="K33" s="368"/>
-      <c r="L33" s="368"/>
-      <c r="M33" s="368"/>
-      <c r="N33" s="369"/>
+      <c r="I33" s="371"/>
+      <c r="J33" s="372"/>
+      <c r="K33" s="372"/>
+      <c r="L33" s="372"/>
+      <c r="M33" s="372"/>
+      <c r="N33" s="373"/>
       <c r="Q33" s="292" t="s">
         <v>80</v>
       </c>
@@ -11261,19 +11261,19 @@
       </c>
       <c r="B34" s="229"/>
       <c r="C34" s="250"/>
-      <c r="D34" s="374"/>
-      <c r="E34" s="375"/>
-      <c r="F34" s="376"/>
+      <c r="D34" s="380"/>
+      <c r="E34" s="381"/>
+      <c r="F34" s="382"/>
       <c r="G34" s="244" t="s">
         <v>82</v>
       </c>
       <c r="H34" s="240"/>
-      <c r="I34" s="377"/>
-      <c r="J34" s="378"/>
-      <c r="K34" s="378"/>
-      <c r="L34" s="378"/>
-      <c r="M34" s="378"/>
-      <c r="N34" s="379"/>
+      <c r="I34" s="383"/>
+      <c r="J34" s="384"/>
+      <c r="K34" s="384"/>
+      <c r="L34" s="384"/>
+      <c r="M34" s="384"/>
+      <c r="N34" s="385"/>
       <c r="Q34" s="292" t="s">
         <v>83</v>
       </c>
@@ -11307,21 +11307,21 @@
         <v>87</v>
       </c>
       <c r="C36" s="252"/>
-      <c r="D36" s="380"/>
-      <c r="E36" s="381"/>
-      <c r="F36" s="381"/>
-      <c r="G36" s="381"/>
-      <c r="H36" s="382"/>
-      <c r="I36" s="383" t="s">
+      <c r="D36" s="386"/>
+      <c r="E36" s="387"/>
+      <c r="F36" s="387"/>
+      <c r="G36" s="387"/>
+      <c r="H36" s="388"/>
+      <c r="I36" s="389" t="s">
         <v>88</v>
       </c>
-      <c r="J36" s="383"/>
-      <c r="K36" s="383"/>
-      <c r="L36" s="384"/>
-      <c r="M36" s="385" t="s">
+      <c r="J36" s="389"/>
+      <c r="K36" s="389"/>
+      <c r="L36" s="390"/>
+      <c r="M36" s="391" t="s">
         <v>89</v>
       </c>
-      <c r="N36" s="386"/>
+      <c r="N36" s="392"/>
       <c r="Q36" s="292" t="s">
         <v>90</v>
       </c>
@@ -11332,19 +11332,19 @@
         <v>91</v>
       </c>
       <c r="C37" s="245"/>
-      <c r="D37" s="407"/>
-      <c r="E37" s="408"/>
-      <c r="F37" s="409"/>
-      <c r="G37" s="410" t="s">
+      <c r="D37" s="414"/>
+      <c r="E37" s="415"/>
+      <c r="F37" s="416"/>
+      <c r="G37" s="417" t="s">
         <v>14</v>
       </c>
-      <c r="H37" s="410"/>
-      <c r="I37" s="411"/>
-      <c r="J37" s="412"/>
-      <c r="K37" s="412"/>
-      <c r="L37" s="413"/>
-      <c r="M37" s="414"/>
-      <c r="N37" s="415"/>
+      <c r="H37" s="417"/>
+      <c r="I37" s="418"/>
+      <c r="J37" s="419"/>
+      <c r="K37" s="419"/>
+      <c r="L37" s="420"/>
+      <c r="M37" s="421"/>
+      <c r="N37" s="422"/>
       <c r="Q37" s="292" t="s">
         <v>92</v>
       </c>
@@ -11355,17 +11355,17 @@
         <v>93</v>
       </c>
       <c r="C38" s="255"/>
-      <c r="D38" s="407"/>
-      <c r="E38" s="408"/>
-      <c r="F38" s="408"/>
-      <c r="G38" s="408"/>
-      <c r="H38" s="409"/>
-      <c r="I38" s="416"/>
-      <c r="J38" s="417"/>
-      <c r="K38" s="417"/>
-      <c r="L38" s="418"/>
-      <c r="M38" s="414"/>
-      <c r="N38" s="415"/>
+      <c r="D38" s="414"/>
+      <c r="E38" s="415"/>
+      <c r="F38" s="415"/>
+      <c r="G38" s="415"/>
+      <c r="H38" s="416"/>
+      <c r="I38" s="423"/>
+      <c r="J38" s="424"/>
+      <c r="K38" s="424"/>
+      <c r="L38" s="425"/>
+      <c r="M38" s="421"/>
+      <c r="N38" s="422"/>
       <c r="Q38" s="292" t="s">
         <v>94</v>
       </c>
@@ -11376,17 +11376,17 @@
         <v>95</v>
       </c>
       <c r="C39" s="225"/>
-      <c r="D39" s="404"/>
-      <c r="E39" s="404"/>
-      <c r="F39" s="404"/>
-      <c r="G39" s="404"/>
-      <c r="H39" s="404"/>
-      <c r="I39" s="412"/>
-      <c r="J39" s="412"/>
-      <c r="K39" s="412"/>
-      <c r="L39" s="413"/>
-      <c r="M39" s="414"/>
-      <c r="N39" s="415"/>
+      <c r="D39" s="411"/>
+      <c r="E39" s="411"/>
+      <c r="F39" s="411"/>
+      <c r="G39" s="411"/>
+      <c r="H39" s="411"/>
+      <c r="I39" s="419"/>
+      <c r="J39" s="419"/>
+      <c r="K39" s="419"/>
+      <c r="L39" s="420"/>
+      <c r="M39" s="421"/>
+      <c r="N39" s="422"/>
       <c r="Q39" s="292" t="s">
         <v>96</v>
       </c>
@@ -11397,17 +11397,17 @@
         <v>97</v>
       </c>
       <c r="C40" s="225"/>
-      <c r="D40" s="404"/>
-      <c r="E40" s="404"/>
-      <c r="F40" s="404"/>
-      <c r="G40" s="404"/>
-      <c r="H40" s="404"/>
-      <c r="I40" s="405"/>
-      <c r="J40" s="405"/>
-      <c r="K40" s="405"/>
-      <c r="L40" s="406"/>
-      <c r="M40" s="402"/>
-      <c r="N40" s="403"/>
+      <c r="D40" s="411"/>
+      <c r="E40" s="411"/>
+      <c r="F40" s="411"/>
+      <c r="G40" s="411"/>
+      <c r="H40" s="411"/>
+      <c r="I40" s="412"/>
+      <c r="J40" s="412"/>
+      <c r="K40" s="412"/>
+      <c r="L40" s="413"/>
+      <c r="M40" s="409"/>
+      <c r="N40" s="410"/>
       <c r="Q40" s="292" t="s">
         <v>98</v>
       </c>
@@ -11418,17 +11418,17 @@
         <v>99</v>
       </c>
       <c r="C41" s="225"/>
-      <c r="D41" s="404"/>
-      <c r="E41" s="404"/>
-      <c r="F41" s="404"/>
-      <c r="G41" s="404"/>
-      <c r="H41" s="404"/>
-      <c r="I41" s="405"/>
-      <c r="J41" s="405"/>
-      <c r="K41" s="405"/>
-      <c r="L41" s="406"/>
-      <c r="M41" s="402"/>
-      <c r="N41" s="403"/>
+      <c r="D41" s="411"/>
+      <c r="E41" s="411"/>
+      <c r="F41" s="411"/>
+      <c r="G41" s="411"/>
+      <c r="H41" s="411"/>
+      <c r="I41" s="412"/>
+      <c r="J41" s="412"/>
+      <c r="K41" s="412"/>
+      <c r="L41" s="413"/>
+      <c r="M41" s="409"/>
+      <c r="N41" s="410"/>
       <c r="Q41" s="292" t="s">
         <v>100</v>
       </c>
@@ -11439,17 +11439,17 @@
         <v>101</v>
       </c>
       <c r="C42" s="257"/>
-      <c r="D42" s="404"/>
-      <c r="E42" s="404"/>
-      <c r="F42" s="404"/>
-      <c r="G42" s="404"/>
-      <c r="H42" s="404"/>
-      <c r="I42" s="405"/>
-      <c r="J42" s="405"/>
-      <c r="K42" s="405"/>
-      <c r="L42" s="406"/>
-      <c r="M42" s="402"/>
-      <c r="N42" s="403"/>
+      <c r="D42" s="411"/>
+      <c r="E42" s="411"/>
+      <c r="F42" s="411"/>
+      <c r="G42" s="411"/>
+      <c r="H42" s="411"/>
+      <c r="I42" s="412"/>
+      <c r="J42" s="412"/>
+      <c r="K42" s="412"/>
+      <c r="L42" s="413"/>
+      <c r="M42" s="409"/>
+      <c r="N42" s="410"/>
       <c r="Q42" s="292" t="s">
         <v>102</v>
       </c>
@@ -11462,17 +11462,17 @@
         <v>104</v>
       </c>
       <c r="C43" s="227"/>
-      <c r="D43" s="407"/>
-      <c r="E43" s="408"/>
-      <c r="F43" s="408"/>
-      <c r="G43" s="408"/>
-      <c r="H43" s="409"/>
-      <c r="I43" s="405"/>
-      <c r="J43" s="405"/>
-      <c r="K43" s="405"/>
-      <c r="L43" s="406"/>
-      <c r="M43" s="402"/>
-      <c r="N43" s="403"/>
+      <c r="D43" s="414"/>
+      <c r="E43" s="415"/>
+      <c r="F43" s="415"/>
+      <c r="G43" s="415"/>
+      <c r="H43" s="416"/>
+      <c r="I43" s="412"/>
+      <c r="J43" s="412"/>
+      <c r="K43" s="412"/>
+      <c r="L43" s="413"/>
+      <c r="M43" s="409"/>
+      <c r="N43" s="410"/>
       <c r="Q43" s="292" t="s">
         <v>105</v>
       </c>
@@ -11483,19 +11483,19 @@
         <v>13</v>
       </c>
       <c r="C44" s="209"/>
-      <c r="D44" s="407"/>
-      <c r="E44" s="408"/>
-      <c r="F44" s="409"/>
-      <c r="G44" s="410" t="s">
+      <c r="D44" s="414"/>
+      <c r="E44" s="415"/>
+      <c r="F44" s="416"/>
+      <c r="G44" s="417" t="s">
         <v>14</v>
       </c>
-      <c r="H44" s="410"/>
-      <c r="I44" s="405"/>
-      <c r="J44" s="405"/>
-      <c r="K44" s="405"/>
-      <c r="L44" s="406"/>
-      <c r="M44" s="402"/>
-      <c r="N44" s="403"/>
+      <c r="H44" s="417"/>
+      <c r="I44" s="412"/>
+      <c r="J44" s="412"/>
+      <c r="K44" s="412"/>
+      <c r="L44" s="413"/>
+      <c r="M44" s="409"/>
+      <c r="N44" s="410"/>
       <c r="Q44" s="292" t="s">
         <v>106</v>
       </c>
@@ -11506,17 +11506,17 @@
         <v>17</v>
       </c>
       <c r="C45" s="242"/>
-      <c r="D45" s="407"/>
-      <c r="E45" s="408"/>
-      <c r="F45" s="408"/>
-      <c r="G45" s="408"/>
-      <c r="H45" s="409"/>
-      <c r="I45" s="405"/>
-      <c r="J45" s="405"/>
-      <c r="K45" s="405"/>
-      <c r="L45" s="406"/>
-      <c r="M45" s="402"/>
-      <c r="N45" s="403"/>
+      <c r="D45" s="414"/>
+      <c r="E45" s="415"/>
+      <c r="F45" s="415"/>
+      <c r="G45" s="415"/>
+      <c r="H45" s="416"/>
+      <c r="I45" s="412"/>
+      <c r="J45" s="412"/>
+      <c r="K45" s="412"/>
+      <c r="L45" s="413"/>
+      <c r="M45" s="409"/>
+      <c r="N45" s="410"/>
       <c r="Q45" s="292" t="s">
         <v>107</v>
       </c>
@@ -11529,17 +11529,17 @@
         <v>109</v>
       </c>
       <c r="C46" s="233"/>
-      <c r="D46" s="419"/>
-      <c r="E46" s="420"/>
-      <c r="F46" s="420"/>
-      <c r="G46" s="420"/>
-      <c r="H46" s="421"/>
-      <c r="I46" s="405"/>
-      <c r="J46" s="405"/>
-      <c r="K46" s="405"/>
-      <c r="L46" s="406"/>
-      <c r="M46" s="402"/>
-      <c r="N46" s="403"/>
+      <c r="D46" s="426"/>
+      <c r="E46" s="427"/>
+      <c r="F46" s="427"/>
+      <c r="G46" s="427"/>
+      <c r="H46" s="428"/>
+      <c r="I46" s="412"/>
+      <c r="J46" s="412"/>
+      <c r="K46" s="412"/>
+      <c r="L46" s="413"/>
+      <c r="M46" s="409"/>
+      <c r="N46" s="410"/>
       <c r="Q46" s="292" t="s">
         <v>110</v>
       </c>
@@ -11550,17 +11550,17 @@
         <v>11</v>
       </c>
       <c r="C47" s="209"/>
-      <c r="D47" s="419"/>
-      <c r="E47" s="420"/>
-      <c r="F47" s="420"/>
-      <c r="G47" s="420"/>
-      <c r="H47" s="421"/>
-      <c r="I47" s="405"/>
-      <c r="J47" s="405"/>
-      <c r="K47" s="405"/>
-      <c r="L47" s="406"/>
-      <c r="M47" s="402"/>
-      <c r="N47" s="403"/>
+      <c r="D47" s="426"/>
+      <c r="E47" s="427"/>
+      <c r="F47" s="427"/>
+      <c r="G47" s="427"/>
+      <c r="H47" s="428"/>
+      <c r="I47" s="412"/>
+      <c r="J47" s="412"/>
+      <c r="K47" s="412"/>
+      <c r="L47" s="413"/>
+      <c r="M47" s="409"/>
+      <c r="N47" s="410"/>
       <c r="Q47" s="292" t="s">
         <v>111</v>
       </c>
@@ -11571,17 +11571,17 @@
         <v>13</v>
       </c>
       <c r="C48" s="209"/>
-      <c r="D48" s="419"/>
-      <c r="E48" s="420"/>
-      <c r="F48" s="420"/>
-      <c r="G48" s="420"/>
-      <c r="H48" s="421"/>
-      <c r="I48" s="405"/>
-      <c r="J48" s="405"/>
-      <c r="K48" s="405"/>
-      <c r="L48" s="406"/>
-      <c r="M48" s="402"/>
-      <c r="N48" s="403"/>
+      <c r="D48" s="426"/>
+      <c r="E48" s="427"/>
+      <c r="F48" s="427"/>
+      <c r="G48" s="427"/>
+      <c r="H48" s="428"/>
+      <c r="I48" s="412"/>
+      <c r="J48" s="412"/>
+      <c r="K48" s="412"/>
+      <c r="L48" s="413"/>
+      <c r="M48" s="409"/>
+      <c r="N48" s="410"/>
       <c r="Q48" s="292" t="s">
         <v>112</v>
       </c>
@@ -11592,19 +11592,19 @@
         <v>17</v>
       </c>
       <c r="C49" s="213"/>
-      <c r="D49" s="436"/>
-      <c r="E49" s="437"/>
-      <c r="F49" s="437"/>
-      <c r="G49" s="437"/>
-      <c r="H49" s="438"/>
-      <c r="I49" s="439" t="s">
+      <c r="D49" s="443"/>
+      <c r="E49" s="444"/>
+      <c r="F49" s="444"/>
+      <c r="G49" s="444"/>
+      <c r="H49" s="445"/>
+      <c r="I49" s="446" t="s">
         <v>113</v>
       </c>
-      <c r="J49" s="439"/>
-      <c r="K49" s="439"/>
-      <c r="L49" s="439"/>
-      <c r="M49" s="439"/>
-      <c r="N49" s="440"/>
+      <c r="J49" s="446"/>
+      <c r="K49" s="446"/>
+      <c r="L49" s="446"/>
+      <c r="M49" s="446"/>
+      <c r="N49" s="447"/>
       <c r="Q49" s="292" t="s">
         <v>114</v>
       </c>
@@ -11620,14 +11620,14 @@
       <c r="F50" s="165"/>
       <c r="G50" s="165"/>
       <c r="H50" s="165"/>
-      <c r="I50" s="441" t="s">
+      <c r="I50" s="448" t="s">
         <v>116</v>
       </c>
-      <c r="J50" s="441"/>
-      <c r="K50" s="441"/>
-      <c r="L50" s="441"/>
-      <c r="M50" s="441"/>
-      <c r="N50" s="442"/>
+      <c r="J50" s="448"/>
+      <c r="K50" s="448"/>
+      <c r="L50" s="448"/>
+      <c r="M50" s="448"/>
+      <c r="N50" s="449"/>
       <c r="Q50" s="292" t="s">
         <v>117</v>
       </c>
@@ -11692,7 +11692,7 @@
       <c r="C53" s="488"/>
       <c r="D53" s="495"/>
       <c r="E53" s="496"/>
-      <c r="F53" s="366"/>
+      <c r="F53" s="370"/>
       <c r="G53" s="495"/>
       <c r="H53" s="496"/>
       <c r="I53" s="499"/>
@@ -11717,12 +11717,12 @@
         <v>131</v>
       </c>
       <c r="C54" s="262"/>
-      <c r="D54" s="367"/>
-      <c r="E54" s="368"/>
-      <c r="F54" s="443"/>
-      <c r="G54" s="444"/>
-      <c r="H54" s="445"/>
-      <c r="I54" s="445"/>
+      <c r="D54" s="371"/>
+      <c r="E54" s="372"/>
+      <c r="F54" s="450"/>
+      <c r="G54" s="451"/>
+      <c r="H54" s="452"/>
+      <c r="I54" s="452"/>
       <c r="J54" s="284"/>
       <c r="K54" s="284"/>
       <c r="L54" s="285"/>
@@ -11738,12 +11738,12 @@
         <v>133</v>
       </c>
       <c r="C55" s="262"/>
-      <c r="D55" s="446"/>
-      <c r="E55" s="447"/>
-      <c r="F55" s="448"/>
-      <c r="G55" s="444"/>
-      <c r="H55" s="445"/>
-      <c r="I55" s="445"/>
+      <c r="D55" s="453"/>
+      <c r="E55" s="454"/>
+      <c r="F55" s="455"/>
+      <c r="G55" s="451"/>
+      <c r="H55" s="452"/>
+      <c r="I55" s="452"/>
       <c r="J55" s="284"/>
       <c r="K55" s="284"/>
       <c r="L55" s="285"/>
@@ -11759,12 +11759,12 @@
         <v>135</v>
       </c>
       <c r="C56" s="262"/>
-      <c r="D56" s="367"/>
-      <c r="E56" s="368"/>
-      <c r="F56" s="443"/>
-      <c r="G56" s="444"/>
-      <c r="H56" s="445"/>
-      <c r="I56" s="445"/>
+      <c r="D56" s="371"/>
+      <c r="E56" s="372"/>
+      <c r="F56" s="450"/>
+      <c r="G56" s="451"/>
+      <c r="H56" s="452"/>
+      <c r="I56" s="452"/>
       <c r="J56" s="170"/>
       <c r="K56" s="170"/>
       <c r="L56" s="285"/>
@@ -11780,12 +11780,12 @@
         <v>137</v>
       </c>
       <c r="C57" s="262"/>
-      <c r="D57" s="367"/>
-      <c r="E57" s="368"/>
-      <c r="F57" s="443"/>
-      <c r="G57" s="444"/>
-      <c r="H57" s="445"/>
-      <c r="I57" s="445"/>
+      <c r="D57" s="371"/>
+      <c r="E57" s="372"/>
+      <c r="F57" s="450"/>
+      <c r="G57" s="451"/>
+      <c r="H57" s="452"/>
+      <c r="I57" s="452"/>
       <c r="J57" s="284"/>
       <c r="K57" s="284"/>
       <c r="L57" s="285"/>
@@ -11801,12 +11801,12 @@
         <v>139</v>
       </c>
       <c r="C58" s="225"/>
-      <c r="D58" s="367"/>
-      <c r="E58" s="368"/>
-      <c r="F58" s="443"/>
-      <c r="G58" s="453"/>
-      <c r="H58" s="454"/>
-      <c r="I58" s="455"/>
+      <c r="D58" s="371"/>
+      <c r="E58" s="372"/>
+      <c r="F58" s="450"/>
+      <c r="G58" s="456"/>
+      <c r="H58" s="457"/>
+      <c r="I58" s="458"/>
       <c r="J58" s="284"/>
       <c r="K58" s="284"/>
       <c r="L58" s="285"/>
@@ -11820,12 +11820,12 @@
       <c r="A59" s="263"/>
       <c r="B59" s="264"/>
       <c r="C59" s="264"/>
-      <c r="D59" s="367"/>
-      <c r="E59" s="368"/>
-      <c r="F59" s="443"/>
-      <c r="G59" s="444"/>
-      <c r="H59" s="445"/>
-      <c r="I59" s="456"/>
+      <c r="D59" s="371"/>
+      <c r="E59" s="372"/>
+      <c r="F59" s="450"/>
+      <c r="G59" s="451"/>
+      <c r="H59" s="452"/>
+      <c r="I59" s="459"/>
       <c r="J59" s="284"/>
       <c r="K59" s="284"/>
       <c r="L59" s="285"/>
@@ -11834,47 +11834,47 @@
       <c r="Q59" s="292"/>
     </row>
     <row r="60" spans="1:17" ht="12" customHeight="1">
-      <c r="A60" s="422" t="s">
+      <c r="A60" s="429" t="s">
         <v>113</v>
       </c>
-      <c r="B60" s="423"/>
-      <c r="C60" s="423"/>
-      <c r="D60" s="423"/>
-      <c r="E60" s="423"/>
-      <c r="F60" s="423"/>
-      <c r="G60" s="423"/>
-      <c r="H60" s="423"/>
-      <c r="I60" s="423"/>
-      <c r="J60" s="423"/>
-      <c r="K60" s="423"/>
-      <c r="L60" s="423"/>
-      <c r="M60" s="423"/>
-      <c r="N60" s="424"/>
+      <c r="B60" s="430"/>
+      <c r="C60" s="430"/>
+      <c r="D60" s="430"/>
+      <c r="E60" s="430"/>
+      <c r="F60" s="430"/>
+      <c r="G60" s="430"/>
+      <c r="H60" s="430"/>
+      <c r="I60" s="430"/>
+      <c r="J60" s="430"/>
+      <c r="K60" s="430"/>
+      <c r="L60" s="430"/>
+      <c r="M60" s="430"/>
+      <c r="N60" s="431"/>
       <c r="Q60" s="292" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="61" spans="1:17" ht="27.75" customHeight="1">
-      <c r="A61" s="425" t="s">
+      <c r="A61" s="432" t="s">
         <v>142</v>
       </c>
-      <c r="B61" s="426"/>
-      <c r="C61" s="427"/>
-      <c r="D61" s="428"/>
-      <c r="E61" s="429"/>
-      <c r="F61" s="429"/>
-      <c r="G61" s="429"/>
-      <c r="H61" s="429"/>
-      <c r="I61" s="430"/>
-      <c r="J61" s="431" t="s">
+      <c r="B61" s="433"/>
+      <c r="C61" s="434"/>
+      <c r="D61" s="435"/>
+      <c r="E61" s="436"/>
+      <c r="F61" s="436"/>
+      <c r="G61" s="436"/>
+      <c r="H61" s="436"/>
+      <c r="I61" s="437"/>
+      <c r="J61" s="438" t="s">
         <v>143</v>
       </c>
-      <c r="K61" s="432"/>
-      <c r="L61" s="433" t="s">
+      <c r="K61" s="439"/>
+      <c r="L61" s="440" t="s">
         <v>144</v>
       </c>
-      <c r="M61" s="434"/>
-      <c r="N61" s="435"/>
+      <c r="M61" s="441"/>
+      <c r="N61" s="442"/>
       <c r="Q61" s="292" t="s">
         <v>145</v>
       </c>
@@ -16257,8 +16257,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:H6"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A36" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -17018,11 +17018,11 @@
       <c r="M46" s="580"/>
     </row>
     <row r="47" spans="1:14" ht="27.75" customHeight="1">
-      <c r="A47" s="425" t="s">
+      <c r="A47" s="432" t="s">
         <v>142</v>
       </c>
-      <c r="B47" s="426"/>
-      <c r="C47" s="427"/>
+      <c r="B47" s="433"/>
+      <c r="C47" s="434"/>
       <c r="D47" s="581"/>
       <c r="E47" s="582"/>
       <c r="F47" s="582"/>
@@ -17193,7 +17193,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.15748031496063" right="0" top="0.15748031496063" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="256" scale="83" orientation="portrait"/>
+  <pageSetup paperSize="256" scale="83" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -17203,8 +17203,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:K6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -17743,19 +17743,19 @@
       <c r="K37" s="666"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="422" t="s">
+      <c r="A38" s="429" t="s">
         <v>113</v>
       </c>
-      <c r="B38" s="423"/>
-      <c r="C38" s="423"/>
-      <c r="D38" s="423"/>
-      <c r="E38" s="423"/>
-      <c r="F38" s="423"/>
-      <c r="G38" s="423"/>
-      <c r="H38" s="423"/>
-      <c r="I38" s="423"/>
-      <c r="J38" s="423"/>
-      <c r="K38" s="424"/>
+      <c r="B38" s="430"/>
+      <c r="C38" s="430"/>
+      <c r="D38" s="430"/>
+      <c r="E38" s="430"/>
+      <c r="F38" s="430"/>
+      <c r="G38" s="430"/>
+      <c r="H38" s="430"/>
+      <c r="I38" s="430"/>
+      <c r="J38" s="430"/>
+      <c r="K38" s="431"/>
     </row>
     <row r="39" spans="1:11" ht="22.5" customHeight="1">
       <c r="A39" s="667" t="s">
@@ -17891,25 +17891,25 @@
       <c r="K47" s="676"/>
     </row>
     <row r="48" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A48" s="422" t="s">
+      <c r="A48" s="429" t="s">
         <v>113</v>
       </c>
-      <c r="B48" s="423"/>
-      <c r="C48" s="423"/>
-      <c r="D48" s="423"/>
-      <c r="E48" s="423"/>
-      <c r="F48" s="423"/>
-      <c r="G48" s="423"/>
-      <c r="H48" s="423"/>
-      <c r="I48" s="423"/>
-      <c r="J48" s="423"/>
+      <c r="B48" s="430"/>
+      <c r="C48" s="430"/>
+      <c r="D48" s="430"/>
+      <c r="E48" s="430"/>
+      <c r="F48" s="430"/>
+      <c r="G48" s="430"/>
+      <c r="H48" s="430"/>
+      <c r="I48" s="430"/>
+      <c r="J48" s="430"/>
       <c r="K48" s="538"/>
     </row>
     <row r="49" spans="1:13" ht="28.5" customHeight="1">
-      <c r="A49" s="425" t="s">
+      <c r="A49" s="432" t="s">
         <v>142</v>
       </c>
-      <c r="B49" s="427"/>
+      <c r="B49" s="434"/>
       <c r="C49" s="581"/>
       <c r="D49" s="582"/>
       <c r="E49" s="582"/>
@@ -18333,12 +18333,12 @@
     <row r="18" spans="1:13" ht="12.75" customHeight="1">
       <c r="A18" s="19"/>
       <c r="B18" s="20"/>
-      <c r="C18" s="792" t="s">
+      <c r="C18" s="715" t="s">
         <v>354</v>
       </c>
-      <c r="D18" s="792"/>
-      <c r="E18" s="793"/>
-      <c r="F18" s="794"/>
+      <c r="D18" s="715"/>
+      <c r="E18" s="716"/>
+      <c r="F18" s="717"/>
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
       <c r="I18" s="26"/>
@@ -18350,10 +18350,10 @@
     <row r="19" spans="1:13" ht="14.25" customHeight="1">
       <c r="A19" s="19"/>
       <c r="B19" s="20"/>
-      <c r="C19" s="792"/>
-      <c r="D19" s="792"/>
-      <c r="E19" s="793"/>
-      <c r="F19" s="794"/>
+      <c r="C19" s="715"/>
+      <c r="D19" s="715"/>
+      <c r="E19" s="716"/>
+      <c r="F19" s="717"/>
       <c r="G19" s="703" t="s">
         <v>351</v>
       </c>
@@ -18367,10 +18367,10 @@
     <row r="20" spans="1:13" ht="14.25" customHeight="1">
       <c r="A20" s="19"/>
       <c r="B20" s="20"/>
-      <c r="C20" s="792"/>
-      <c r="D20" s="792"/>
-      <c r="E20" s="793"/>
-      <c r="F20" s="794"/>
+      <c r="C20" s="715"/>
+      <c r="D20" s="715"/>
+      <c r="E20" s="716"/>
+      <c r="F20" s="717"/>
       <c r="G20" s="26"/>
       <c r="H20" s="709" t="s">
         <v>355</v>
@@ -18384,10 +18384,10 @@
     <row r="21" spans="1:13" ht="14.25" customHeight="1">
       <c r="A21" s="19"/>
       <c r="B21" s="20"/>
-      <c r="C21" s="792"/>
-      <c r="D21" s="792"/>
-      <c r="E21" s="793"/>
-      <c r="F21" s="794"/>
+      <c r="C21" s="715"/>
+      <c r="D21" s="715"/>
+      <c r="E21" s="716"/>
+      <c r="F21" s="717"/>
       <c r="G21" s="710" t="s">
         <v>356</v>
       </c>
@@ -18401,10 +18401,10 @@
     <row r="22" spans="1:13" ht="5.25" customHeight="1">
       <c r="A22" s="27"/>
       <c r="B22" s="28"/>
-      <c r="C22" s="795"/>
-      <c r="D22" s="795"/>
-      <c r="E22" s="795"/>
-      <c r="F22" s="796"/>
+      <c r="C22" s="718"/>
+      <c r="D22" s="718"/>
+      <c r="E22" s="718"/>
+      <c r="F22" s="719"/>
       <c r="G22" s="17" t="s">
         <v>357</v>
       </c>
@@ -18420,12 +18420,12 @@
         <v>358</v>
       </c>
       <c r="B23" s="714"/>
-      <c r="C23" s="797" t="s">
+      <c r="C23" s="721" t="s">
         <v>359</v>
       </c>
-      <c r="D23" s="797"/>
-      <c r="E23" s="797"/>
-      <c r="F23" s="798"/>
+      <c r="D23" s="721"/>
+      <c r="E23" s="721"/>
+      <c r="F23" s="722"/>
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
@@ -18440,7 +18440,7 @@
       <c r="C24" s="723"/>
       <c r="D24" s="723"/>
       <c r="E24" s="723"/>
-      <c r="F24" s="799"/>
+      <c r="F24" s="724"/>
       <c r="G24" s="703" t="s">
         <v>351</v>
       </c>
@@ -18457,22 +18457,22 @@
       <c r="C25" s="723"/>
       <c r="D25" s="723"/>
       <c r="E25" s="723"/>
-      <c r="F25" s="799"/>
+      <c r="F25" s="724"/>
       <c r="G25" s="33"/>
       <c r="H25" s="18"/>
-      <c r="I25" s="715"/>
-      <c r="J25" s="715"/>
-      <c r="K25" s="715"/>
-      <c r="L25" s="715"/>
+      <c r="I25" s="720"/>
+      <c r="J25" s="720"/>
+      <c r="K25" s="720"/>
+      <c r="L25" s="720"/>
       <c r="M25" s="86"/>
     </row>
     <row r="26" spans="1:13" ht="6" customHeight="1">
       <c r="A26" s="34"/>
       <c r="B26" s="35"/>
-      <c r="C26" s="800"/>
-      <c r="D26" s="800"/>
-      <c r="E26" s="800"/>
-      <c r="F26" s="801"/>
+      <c r="C26" s="725"/>
+      <c r="D26" s="725"/>
+      <c r="E26" s="725"/>
+      <c r="F26" s="726"/>
       <c r="G26" s="17"/>
       <c r="H26" s="18"/>
       <c r="I26" s="708"/>
@@ -18486,12 +18486,12 @@
         <v>360</v>
       </c>
       <c r="B27" s="714"/>
-      <c r="C27" s="797" t="s">
+      <c r="C27" s="721" t="s">
         <v>361</v>
       </c>
-      <c r="D27" s="797"/>
-      <c r="E27" s="797"/>
-      <c r="F27" s="798"/>
+      <c r="D27" s="721"/>
+      <c r="E27" s="721"/>
+      <c r="F27" s="722"/>
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
@@ -18506,7 +18506,7 @@
       <c r="C28" s="723"/>
       <c r="D28" s="723"/>
       <c r="E28" s="723"/>
-      <c r="F28" s="799"/>
+      <c r="F28" s="724"/>
       <c r="G28" s="703" t="s">
         <v>351</v>
       </c>
@@ -18523,41 +18523,41 @@
       <c r="C29" s="723"/>
       <c r="D29" s="723"/>
       <c r="E29" s="723"/>
-      <c r="F29" s="799"/>
-      <c r="G29" s="802"/>
-      <c r="H29" s="803"/>
-      <c r="I29" s="803"/>
-      <c r="J29" s="803"/>
-      <c r="K29" s="803"/>
-      <c r="L29" s="803"/>
-      <c r="M29" s="804"/>
+      <c r="F29" s="724"/>
+      <c r="G29" s="727"/>
+      <c r="H29" s="728"/>
+      <c r="I29" s="728"/>
+      <c r="J29" s="728"/>
+      <c r="K29" s="728"/>
+      <c r="L29" s="728"/>
+      <c r="M29" s="729"/>
     </row>
     <row r="30" spans="1:13" ht="30" customHeight="1">
       <c r="A30" s="34"/>
       <c r="B30" s="35"/>
-      <c r="C30" s="800"/>
-      <c r="D30" s="800"/>
-      <c r="E30" s="800"/>
-      <c r="F30" s="801"/>
-      <c r="G30" s="805"/>
-      <c r="H30" s="806"/>
-      <c r="I30" s="806"/>
-      <c r="J30" s="806"/>
-      <c r="K30" s="806"/>
-      <c r="L30" s="806"/>
-      <c r="M30" s="807"/>
+      <c r="C30" s="725"/>
+      <c r="D30" s="725"/>
+      <c r="E30" s="725"/>
+      <c r="F30" s="726"/>
+      <c r="G30" s="730"/>
+      <c r="H30" s="731"/>
+      <c r="I30" s="731"/>
+      <c r="J30" s="731"/>
+      <c r="K30" s="731"/>
+      <c r="L30" s="731"/>
+      <c r="M30" s="732"/>
     </row>
     <row r="31" spans="1:13" ht="18" customHeight="1">
       <c r="A31" s="713" t="s">
         <v>362</v>
       </c>
       <c r="B31" s="714"/>
-      <c r="C31" s="797" t="s">
+      <c r="C31" s="721" t="s">
         <v>363</v>
       </c>
-      <c r="D31" s="797"/>
-      <c r="E31" s="797"/>
-      <c r="F31" s="798"/>
+      <c r="D31" s="721"/>
+      <c r="E31" s="721"/>
+      <c r="F31" s="722"/>
       <c r="G31" s="13"/>
       <c r="H31" s="13"/>
       <c r="I31" s="13"/>
@@ -18572,15 +18572,15 @@
       <c r="C32" s="723"/>
       <c r="D32" s="723"/>
       <c r="E32" s="723"/>
-      <c r="F32" s="799"/>
-      <c r="G32" s="716" t="s">
+      <c r="F32" s="724"/>
+      <c r="G32" s="733" t="s">
         <v>364</v>
       </c>
-      <c r="H32" s="717"/>
-      <c r="I32" s="717"/>
-      <c r="J32" s="717"/>
-      <c r="K32" s="718"/>
-      <c r="L32" s="718"/>
+      <c r="H32" s="734"/>
+      <c r="I32" s="734"/>
+      <c r="J32" s="734"/>
+      <c r="K32" s="735"/>
+      <c r="L32" s="735"/>
       <c r="M32" s="86"/>
     </row>
     <row r="33" spans="1:14" ht="6.75" customHeight="1">
@@ -18606,13 +18606,13 @@
       </c>
       <c r="D34" s="723"/>
       <c r="E34" s="723"/>
-      <c r="F34" s="799"/>
+      <c r="F34" s="724"/>
       <c r="G34" s="33"/>
       <c r="H34" s="38"/>
-      <c r="I34" s="719"/>
-      <c r="J34" s="719"/>
-      <c r="K34" s="719"/>
-      <c r="L34" s="719"/>
+      <c r="I34" s="736"/>
+      <c r="J34" s="736"/>
+      <c r="K34" s="736"/>
+      <c r="L34" s="736"/>
       <c r="M34" s="86"/>
     </row>
     <row r="35" spans="1:14" ht="14.25" customHeight="1">
@@ -18621,24 +18621,24 @@
       <c r="C35" s="723"/>
       <c r="D35" s="723"/>
       <c r="E35" s="723"/>
-      <c r="F35" s="799"/>
-      <c r="G35" s="716" t="s">
+      <c r="F35" s="724"/>
+      <c r="G35" s="733" t="s">
         <v>364</v>
       </c>
-      <c r="H35" s="717"/>
-      <c r="I35" s="717"/>
-      <c r="J35" s="717"/>
-      <c r="K35" s="718"/>
-      <c r="L35" s="718"/>
+      <c r="H35" s="734"/>
+      <c r="I35" s="734"/>
+      <c r="J35" s="734"/>
+      <c r="K35" s="735"/>
+      <c r="L35" s="735"/>
       <c r="M35" s="86"/>
     </row>
     <row r="36" spans="1:14" ht="4.5" customHeight="1">
       <c r="A36" s="34"/>
       <c r="B36" s="35"/>
-      <c r="C36" s="800"/>
-      <c r="D36" s="800"/>
-      <c r="E36" s="800"/>
-      <c r="F36" s="801"/>
+      <c r="C36" s="725"/>
+      <c r="D36" s="725"/>
+      <c r="E36" s="725"/>
+      <c r="F36" s="726"/>
       <c r="G36" s="36"/>
       <c r="H36" s="37"/>
       <c r="I36" s="87"/>
@@ -18651,12 +18651,12 @@
         <v>366</v>
       </c>
       <c r="B37" s="714"/>
-      <c r="C37" s="814" t="s">
+      <c r="C37" s="747" t="s">
         <v>367</v>
       </c>
-      <c r="D37" s="814"/>
-      <c r="E37" s="814"/>
-      <c r="F37" s="815"/>
+      <c r="D37" s="747"/>
+      <c r="E37" s="747"/>
+      <c r="F37" s="748"/>
       <c r="G37" s="13"/>
       <c r="H37" s="13"/>
       <c r="I37" s="13"/>
@@ -18671,7 +18671,7 @@
       <c r="C38" s="705"/>
       <c r="D38" s="705"/>
       <c r="E38" s="705"/>
-      <c r="F38" s="816"/>
+      <c r="F38" s="749"/>
       <c r="G38" s="703" t="s">
         <v>368</v>
       </c>
@@ -18680,7 +18680,7 @@
       <c r="J38" s="695"/>
       <c r="K38" s="695"/>
       <c r="L38" s="695"/>
-      <c r="M38" s="720"/>
+      <c r="M38" s="744"/>
     </row>
     <row r="39" spans="1:14" ht="14.25" customHeight="1">
       <c r="A39" s="14"/>
@@ -18688,22 +18688,22 @@
       <c r="C39" s="705"/>
       <c r="D39" s="705"/>
       <c r="E39" s="705"/>
-      <c r="F39" s="816"/>
+      <c r="F39" s="749"/>
       <c r="G39" s="33"/>
       <c r="H39" s="18"/>
-      <c r="I39" s="715"/>
-      <c r="J39" s="715"/>
-      <c r="K39" s="715"/>
-      <c r="L39" s="715"/>
+      <c r="I39" s="720"/>
+      <c r="J39" s="720"/>
+      <c r="K39" s="720"/>
+      <c r="L39" s="720"/>
       <c r="M39" s="86"/>
     </row>
     <row r="40" spans="1:14" ht="6" customHeight="1">
       <c r="A40" s="34"/>
       <c r="B40" s="35"/>
-      <c r="C40" s="817"/>
-      <c r="D40" s="817"/>
-      <c r="E40" s="817"/>
-      <c r="F40" s="818"/>
+      <c r="C40" s="750"/>
+      <c r="D40" s="750"/>
+      <c r="E40" s="750"/>
+      <c r="F40" s="751"/>
       <c r="G40" s="17"/>
       <c r="H40" s="18"/>
       <c r="I40" s="708"/>
@@ -18713,16 +18713,16 @@
       <c r="M40" s="78"/>
     </row>
     <row r="41" spans="1:14" ht="24" customHeight="1">
-      <c r="A41" s="721" t="s">
+      <c r="A41" s="745" t="s">
         <v>369</v>
       </c>
-      <c r="B41" s="722"/>
+      <c r="B41" s="746"/>
       <c r="C41" s="723" t="s">
         <v>370</v>
       </c>
       <c r="D41" s="723"/>
       <c r="E41" s="723"/>
-      <c r="F41" s="799"/>
+      <c r="F41" s="724"/>
       <c r="G41" s="13"/>
       <c r="H41" s="13"/>
       <c r="I41" s="90"/>
@@ -18737,7 +18737,7 @@
       <c r="C42" s="723"/>
       <c r="D42" s="723"/>
       <c r="E42" s="723"/>
-      <c r="F42" s="799"/>
+      <c r="F42" s="724"/>
       <c r="G42" s="41"/>
       <c r="H42" s="41"/>
       <c r="I42" s="41"/>
@@ -18756,7 +18756,7 @@
       </c>
       <c r="D43" s="723"/>
       <c r="E43" s="723"/>
-      <c r="F43" s="799"/>
+      <c r="F43" s="724"/>
       <c r="M43" s="71"/>
     </row>
     <row r="44" spans="1:14" ht="15" customHeight="1">
@@ -18765,7 +18765,7 @@
       <c r="C44" s="723"/>
       <c r="D44" s="723"/>
       <c r="E44" s="723"/>
-      <c r="F44" s="799"/>
+      <c r="F44" s="724"/>
       <c r="G44" s="42" t="s">
         <v>373</v>
       </c>
@@ -18781,21 +18781,21 @@
         <v>374</v>
       </c>
       <c r="B45" s="40"/>
-      <c r="C45" s="799" t="s">
+      <c r="C45" s="724" t="s">
         <v>375</v>
       </c>
-      <c r="D45" s="799"/>
-      <c r="E45" s="799"/>
-      <c r="F45" s="799"/>
+      <c r="D45" s="724"/>
+      <c r="E45" s="724"/>
+      <c r="F45" s="724"/>
       <c r="M45" s="71"/>
     </row>
     <row r="46" spans="1:14" ht="15" customHeight="1">
       <c r="A46" s="39"/>
       <c r="B46" s="40"/>
-      <c r="C46" s="799"/>
-      <c r="D46" s="799"/>
-      <c r="E46" s="799"/>
-      <c r="F46" s="799"/>
+      <c r="C46" s="724"/>
+      <c r="D46" s="724"/>
+      <c r="E46" s="724"/>
+      <c r="F46" s="724"/>
       <c r="G46" s="44" t="s">
         <v>376</v>
       </c>
@@ -18821,12 +18821,12 @@
       <c r="M47" s="71"/>
     </row>
     <row r="48" spans="1:14" ht="12" customHeight="1">
-      <c r="A48" s="732"/>
-      <c r="B48" s="733"/>
-      <c r="C48" s="733"/>
-      <c r="D48" s="733"/>
-      <c r="E48" s="733"/>
-      <c r="F48" s="734"/>
+      <c r="A48" s="737"/>
+      <c r="B48" s="738"/>
+      <c r="C48" s="738"/>
+      <c r="D48" s="738"/>
+      <c r="E48" s="738"/>
+      <c r="F48" s="739"/>
       <c r="G48" s="48" t="s">
         <v>376</v>
       </c>
@@ -18839,12 +18839,12 @@
       <c r="N48" s="37"/>
     </row>
     <row r="49" spans="1:14" ht="6.75" customHeight="1">
-      <c r="A49" s="735"/>
-      <c r="B49" s="736"/>
-      <c r="C49" s="736"/>
-      <c r="D49" s="736"/>
-      <c r="E49" s="736"/>
-      <c r="F49" s="737"/>
+      <c r="A49" s="740"/>
+      <c r="B49" s="741"/>
+      <c r="C49" s="741"/>
+      <c r="D49" s="741"/>
+      <c r="E49" s="741"/>
+      <c r="F49" s="742"/>
       <c r="G49" s="50"/>
       <c r="H49" s="51"/>
       <c r="I49" s="51"/>
@@ -18855,10 +18855,10 @@
       <c r="N49" s="37"/>
     </row>
     <row r="50" spans="1:14" ht="23.25" customHeight="1">
-      <c r="A50" s="724" t="s">
+      <c r="A50" s="779" t="s">
         <v>379</v>
       </c>
-      <c r="B50" s="725"/>
+      <c r="B50" s="780"/>
       <c r="C50" s="52" t="s">
         <v>380</v>
       </c>
@@ -18868,31 +18868,31 @@
       <c r="G50" s="52"/>
       <c r="H50" s="52"/>
       <c r="I50" s="98"/>
-      <c r="J50" s="808"/>
-      <c r="K50" s="809"/>
-      <c r="L50" s="809"/>
-      <c r="M50" s="810"/>
+      <c r="J50" s="763"/>
+      <c r="K50" s="764"/>
+      <c r="L50" s="764"/>
+      <c r="M50" s="765"/>
     </row>
     <row r="51" spans="1:14" ht="18" customHeight="1">
-      <c r="A51" s="726" t="s">
+      <c r="A51" s="781" t="s">
         <v>381</v>
       </c>
-      <c r="B51" s="727"/>
-      <c r="C51" s="727"/>
-      <c r="D51" s="727"/>
-      <c r="E51" s="728"/>
+      <c r="B51" s="782"/>
+      <c r="C51" s="782"/>
+      <c r="D51" s="782"/>
+      <c r="E51" s="783"/>
       <c r="F51" s="53" t="s">
         <v>382</v>
       </c>
-      <c r="G51" s="729" t="s">
+      <c r="G51" s="784" t="s">
         <v>383</v>
       </c>
-      <c r="H51" s="730"/>
-      <c r="I51" s="731"/>
-      <c r="J51" s="811"/>
-      <c r="K51" s="812"/>
-      <c r="L51" s="812"/>
-      <c r="M51" s="813"/>
+      <c r="H51" s="785"/>
+      <c r="I51" s="786"/>
+      <c r="J51" s="766"/>
+      <c r="K51" s="767"/>
+      <c r="L51" s="767"/>
+      <c r="M51" s="768"/>
     </row>
     <row r="52" spans="1:14" ht="21" customHeight="1">
       <c r="A52" s="54"/>
@@ -18901,13 +18901,13 @@
       <c r="D52" s="55"/>
       <c r="E52" s="55"/>
       <c r="F52" s="56"/>
-      <c r="G52" s="819"/>
-      <c r="H52" s="820"/>
-      <c r="I52" s="821"/>
-      <c r="J52" s="811"/>
-      <c r="K52" s="812"/>
-      <c r="L52" s="812"/>
-      <c r="M52" s="813"/>
+      <c r="G52" s="769"/>
+      <c r="H52" s="770"/>
+      <c r="I52" s="771"/>
+      <c r="J52" s="766"/>
+      <c r="K52" s="767"/>
+      <c r="L52" s="767"/>
+      <c r="M52" s="768"/>
     </row>
     <row r="53" spans="1:14" ht="21" customHeight="1">
       <c r="A53" s="54"/>
@@ -18916,79 +18916,79 @@
       <c r="D53" s="55"/>
       <c r="E53" s="55"/>
       <c r="F53" s="57"/>
-      <c r="G53" s="819"/>
-      <c r="H53" s="820"/>
-      <c r="I53" s="821"/>
-      <c r="J53" s="811"/>
-      <c r="K53" s="812"/>
-      <c r="L53" s="812"/>
-      <c r="M53" s="813"/>
+      <c r="G53" s="769"/>
+      <c r="H53" s="770"/>
+      <c r="I53" s="771"/>
+      <c r="J53" s="766"/>
+      <c r="K53" s="767"/>
+      <c r="L53" s="767"/>
+      <c r="M53" s="768"/>
     </row>
     <row r="54" spans="1:14" ht="21" customHeight="1">
-      <c r="A54" s="822"/>
-      <c r="B54" s="823"/>
-      <c r="C54" s="824"/>
-      <c r="D54" s="824"/>
-      <c r="E54" s="825"/>
+      <c r="A54" s="772"/>
+      <c r="B54" s="773"/>
+      <c r="C54" s="774"/>
+      <c r="D54" s="774"/>
+      <c r="E54" s="775"/>
       <c r="F54" s="58"/>
-      <c r="G54" s="826"/>
-      <c r="H54" s="827"/>
-      <c r="I54" s="828"/>
-      <c r="J54" s="811"/>
-      <c r="K54" s="812"/>
-      <c r="L54" s="812"/>
-      <c r="M54" s="813"/>
+      <c r="G54" s="776"/>
+      <c r="H54" s="777"/>
+      <c r="I54" s="778"/>
+      <c r="J54" s="766"/>
+      <c r="K54" s="767"/>
+      <c r="L54" s="767"/>
+      <c r="M54" s="768"/>
     </row>
     <row r="55" spans="1:14" ht="39.75" customHeight="1">
       <c r="A55" s="687" t="s">
         <v>384</v>
       </c>
       <c r="B55" s="688"/>
-      <c r="C55" s="748" t="s">
+      <c r="C55" s="761" t="s">
         <v>385</v>
       </c>
-      <c r="D55" s="748"/>
-      <c r="E55" s="748"/>
-      <c r="F55" s="748"/>
-      <c r="G55" s="748"/>
-      <c r="H55" s="748"/>
+      <c r="D55" s="761"/>
+      <c r="E55" s="761"/>
+      <c r="F55" s="761"/>
+      <c r="G55" s="761"/>
+      <c r="H55" s="761"/>
       <c r="I55" s="100"/>
-      <c r="J55" s="812"/>
-      <c r="K55" s="812"/>
-      <c r="L55" s="812"/>
-      <c r="M55" s="813"/>
+      <c r="J55" s="767"/>
+      <c r="K55" s="767"/>
+      <c r="L55" s="767"/>
+      <c r="M55" s="768"/>
     </row>
     <row r="56" spans="1:14" ht="13.5" customHeight="1">
       <c r="A56" s="59"/>
       <c r="B56" s="60"/>
-      <c r="C56" s="749"/>
-      <c r="D56" s="749"/>
-      <c r="E56" s="749"/>
-      <c r="F56" s="749"/>
-      <c r="G56" s="749"/>
-      <c r="H56" s="749"/>
+      <c r="C56" s="762"/>
+      <c r="D56" s="762"/>
+      <c r="E56" s="762"/>
+      <c r="F56" s="762"/>
+      <c r="G56" s="762"/>
+      <c r="H56" s="762"/>
       <c r="I56" s="101"/>
       <c r="J56" s="102"/>
-      <c r="K56" s="738" t="s">
+      <c r="K56" s="743" t="s">
         <v>386</v>
       </c>
-      <c r="L56" s="738"/>
+      <c r="L56" s="743"/>
       <c r="M56" s="103"/>
     </row>
     <row r="57" spans="1:14" ht="13.5" customHeight="1">
       <c r="A57" s="59"/>
       <c r="B57" s="60"/>
-      <c r="C57" s="749"/>
-      <c r="D57" s="749"/>
-      <c r="E57" s="749"/>
-      <c r="F57" s="749"/>
-      <c r="G57" s="749"/>
-      <c r="H57" s="749"/>
+      <c r="C57" s="762"/>
+      <c r="D57" s="762"/>
+      <c r="E57" s="762"/>
+      <c r="F57" s="762"/>
+      <c r="G57" s="762"/>
+      <c r="H57" s="762"/>
       <c r="I57" s="101"/>
-      <c r="J57" s="738"/>
-      <c r="K57" s="738"/>
-      <c r="L57" s="738"/>
-      <c r="M57" s="739"/>
+      <c r="J57" s="743"/>
+      <c r="K57" s="743"/>
+      <c r="L57" s="743"/>
+      <c r="M57" s="752"/>
     </row>
     <row r="58" spans="1:14" ht="7.5" customHeight="1">
       <c r="A58" s="61"/>
@@ -19000,8 +19000,8 @@
       <c r="G58" s="63"/>
       <c r="H58" s="63"/>
       <c r="I58" s="104"/>
-      <c r="K58" s="761"/>
-      <c r="L58" s="762"/>
+      <c r="K58" s="798"/>
+      <c r="L58" s="799"/>
       <c r="M58" s="71"/>
     </row>
     <row r="59" spans="1:14" ht="8.25" customHeight="1">
@@ -19013,104 +19013,104 @@
       <c r="G59" s="65"/>
       <c r="H59" s="65"/>
       <c r="I59" s="65"/>
-      <c r="K59" s="763"/>
-      <c r="L59" s="764"/>
+      <c r="K59" s="800"/>
+      <c r="L59" s="801"/>
       <c r="M59" s="71"/>
     </row>
     <row r="60" spans="1:14" ht="25.5" customHeight="1">
       <c r="A60" s="66"/>
-      <c r="B60" s="740" t="s">
+      <c r="B60" s="753" t="s">
         <v>387</v>
       </c>
-      <c r="C60" s="741"/>
-      <c r="D60" s="742"/>
-      <c r="F60" s="769"/>
-      <c r="G60" s="770"/>
-      <c r="H60" s="770"/>
-      <c r="I60" s="771"/>
-      <c r="K60" s="763"/>
-      <c r="L60" s="764"/>
+      <c r="C60" s="754"/>
+      <c r="D60" s="755"/>
+      <c r="F60" s="806"/>
+      <c r="G60" s="807"/>
+      <c r="H60" s="807"/>
+      <c r="I60" s="808"/>
+      <c r="K60" s="800"/>
+      <c r="L60" s="801"/>
       <c r="M60" s="105"/>
     </row>
     <row r="61" spans="1:14" ht="15" customHeight="1">
       <c r="A61" s="66"/>
-      <c r="B61" s="743" t="s">
+      <c r="B61" s="756" t="s">
         <v>388</v>
       </c>
-      <c r="C61" s="744"/>
+      <c r="C61" s="757"/>
       <c r="D61" s="67"/>
-      <c r="F61" s="772"/>
-      <c r="G61" s="773"/>
-      <c r="H61" s="773"/>
-      <c r="I61" s="774"/>
-      <c r="K61" s="763"/>
-      <c r="L61" s="764"/>
+      <c r="F61" s="809"/>
+      <c r="G61" s="810"/>
+      <c r="H61" s="810"/>
+      <c r="I61" s="811"/>
+      <c r="K61" s="800"/>
+      <c r="L61" s="801"/>
       <c r="M61" s="105"/>
     </row>
     <row r="62" spans="1:14" ht="9" customHeight="1">
       <c r="A62" s="66"/>
-      <c r="B62" s="757" t="s">
+      <c r="B62" s="794" t="s">
         <v>389</v>
       </c>
-      <c r="C62" s="758"/>
-      <c r="D62" s="754"/>
-      <c r="F62" s="775"/>
-      <c r="G62" s="776"/>
-      <c r="H62" s="776"/>
-      <c r="I62" s="777"/>
-      <c r="K62" s="763"/>
-      <c r="L62" s="764"/>
+      <c r="C62" s="795"/>
+      <c r="D62" s="791"/>
+      <c r="F62" s="812"/>
+      <c r="G62" s="813"/>
+      <c r="H62" s="813"/>
+      <c r="I62" s="814"/>
+      <c r="K62" s="800"/>
+      <c r="L62" s="801"/>
       <c r="M62" s="105"/>
     </row>
     <row r="63" spans="1:14" ht="12" customHeight="1">
       <c r="A63" s="66"/>
-      <c r="B63" s="767"/>
-      <c r="C63" s="768"/>
-      <c r="D63" s="755"/>
-      <c r="F63" s="745" t="s">
+      <c r="B63" s="804"/>
+      <c r="C63" s="805"/>
+      <c r="D63" s="792"/>
+      <c r="F63" s="758" t="s">
         <v>390</v>
       </c>
-      <c r="G63" s="746"/>
-      <c r="H63" s="746"/>
-      <c r="I63" s="747"/>
-      <c r="K63" s="763"/>
-      <c r="L63" s="764"/>
+      <c r="G63" s="759"/>
+      <c r="H63" s="759"/>
+      <c r="I63" s="760"/>
+      <c r="K63" s="800"/>
+      <c r="L63" s="801"/>
       <c r="M63" s="105"/>
     </row>
     <row r="64" spans="1:14" ht="10.5" customHeight="1">
       <c r="A64" s="66"/>
-      <c r="B64" s="757" t="s">
+      <c r="B64" s="794" t="s">
         <v>391</v>
       </c>
-      <c r="C64" s="758"/>
-      <c r="D64" s="754"/>
-      <c r="F64" s="778" t="s">
+      <c r="C64" s="795"/>
+      <c r="D64" s="791"/>
+      <c r="F64" s="815" t="s">
         <v>144</v>
       </c>
-      <c r="G64" s="779"/>
-      <c r="H64" s="779"/>
-      <c r="I64" s="780"/>
+      <c r="G64" s="816"/>
+      <c r="H64" s="816"/>
+      <c r="I64" s="817"/>
       <c r="J64" s="106"/>
-      <c r="K64" s="765"/>
-      <c r="L64" s="766"/>
+      <c r="K64" s="802"/>
+      <c r="L64" s="803"/>
       <c r="M64" s="105"/>
     </row>
     <row r="65" spans="1:13" ht="12.75" customHeight="1">
       <c r="A65" s="66"/>
-      <c r="B65" s="759"/>
-      <c r="C65" s="760"/>
-      <c r="D65" s="756"/>
-      <c r="F65" s="781" t="s">
+      <c r="B65" s="796"/>
+      <c r="C65" s="797"/>
+      <c r="D65" s="793"/>
+      <c r="F65" s="818" t="s">
         <v>392</v>
       </c>
-      <c r="G65" s="782"/>
-      <c r="H65" s="782"/>
-      <c r="I65" s="783"/>
+      <c r="G65" s="819"/>
+      <c r="H65" s="819"/>
+      <c r="I65" s="820"/>
       <c r="J65" s="106"/>
-      <c r="K65" s="784" t="s">
+      <c r="K65" s="821" t="s">
         <v>393</v>
       </c>
-      <c r="L65" s="785"/>
+      <c r="L65" s="822"/>
       <c r="M65" s="105"/>
     </row>
     <row r="66" spans="1:13" ht="8.25" customHeight="1">
@@ -19129,32 +19129,32 @@
       <c r="M66" s="115"/>
     </row>
     <row r="67" spans="1:13" ht="23.1" customHeight="1">
-      <c r="A67" s="786" t="s">
+      <c r="A67" s="823" t="s">
         <v>394</v>
       </c>
-      <c r="B67" s="787"/>
-      <c r="C67" s="787"/>
-      <c r="D67" s="787"/>
-      <c r="E67" s="787"/>
-      <c r="F67" s="787"/>
-      <c r="G67" s="787"/>
-      <c r="H67" s="787"/>
-      <c r="I67" s="787"/>
-      <c r="J67" s="787"/>
-      <c r="K67" s="787"/>
-      <c r="L67" s="787"/>
-      <c r="M67" s="788"/>
+      <c r="B67" s="824"/>
+      <c r="C67" s="824"/>
+      <c r="D67" s="824"/>
+      <c r="E67" s="824"/>
+      <c r="F67" s="824"/>
+      <c r="G67" s="824"/>
+      <c r="H67" s="824"/>
+      <c r="I67" s="824"/>
+      <c r="J67" s="824"/>
+      <c r="K67" s="824"/>
+      <c r="L67" s="824"/>
+      <c r="M67" s="825"/>
     </row>
     <row r="68" spans="1:13" ht="36.6" customHeight="1">
       <c r="A68" s="66"/>
       <c r="B68" s="106"/>
       <c r="C68" s="111"/>
       <c r="D68" s="111"/>
-      <c r="E68" s="789"/>
-      <c r="F68" s="790"/>
-      <c r="G68" s="790"/>
-      <c r="H68" s="790"/>
-      <c r="I68" s="791"/>
+      <c r="E68" s="826"/>
+      <c r="F68" s="827"/>
+      <c r="G68" s="827"/>
+      <c r="H68" s="827"/>
+      <c r="I68" s="828"/>
       <c r="J68" s="116"/>
       <c r="K68" s="116"/>
       <c r="M68" s="105"/>
@@ -19164,13 +19164,13 @@
       <c r="B69" s="106"/>
       <c r="C69" s="99"/>
       <c r="D69" s="99"/>
-      <c r="E69" s="750" t="s">
+      <c r="E69" s="787" t="s">
         <v>395</v>
       </c>
-      <c r="F69" s="751"/>
-      <c r="G69" s="751"/>
-      <c r="H69" s="751"/>
-      <c r="I69" s="752"/>
+      <c r="F69" s="788"/>
+      <c r="G69" s="788"/>
+      <c r="H69" s="788"/>
+      <c r="I69" s="789"/>
       <c r="J69" s="117"/>
       <c r="K69" s="118"/>
       <c r="L69" s="119"/>
@@ -19192,21 +19192,21 @@
       <c r="M70" s="120"/>
     </row>
     <row r="71" spans="1:13" ht="10.5" customHeight="1">
-      <c r="A71" s="753" t="s">
+      <c r="A71" s="790" t="s">
         <v>396</v>
       </c>
-      <c r="B71" s="753"/>
-      <c r="C71" s="753"/>
-      <c r="D71" s="753"/>
-      <c r="E71" s="753"/>
-      <c r="F71" s="753"/>
-      <c r="G71" s="753"/>
-      <c r="H71" s="753"/>
-      <c r="I71" s="753"/>
-      <c r="J71" s="753"/>
-      <c r="K71" s="753"/>
-      <c r="L71" s="753"/>
-      <c r="M71" s="753"/>
+      <c r="B71" s="790"/>
+      <c r="C71" s="790"/>
+      <c r="D71" s="790"/>
+      <c r="E71" s="790"/>
+      <c r="F71" s="790"/>
+      <c r="G71" s="790"/>
+      <c r="H71" s="790"/>
+      <c r="I71" s="790"/>
+      <c r="J71" s="790"/>
+      <c r="K71" s="790"/>
+      <c r="L71" s="790"/>
+      <c r="M71" s="790"/>
     </row>
   </sheetData>
   <customSheetViews>
